--- a/Reference/HO2+O/HO2+O=OH+O2.xlsx
+++ b/Reference/HO2+O/HO2+O=OH+O2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangx\Desktop\H2_O2\Reference\HO2+O\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BCC31F-4C3F-4D48-A527-35FE28779085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HO2+O=OH+O2_Ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="theoretical results" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$E$1:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'theoretical results'!$C$1:$C$3</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -25,7 +31,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$4</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'theoretical results'!$E$4</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -39,12 +45,20 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Author</t>
   </si>
@@ -106,22 +120,37 @@
     <t>Srinivasan</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>Theo</t>
-  </si>
-  <si>
-    <t>Simu</t>
+    <t>channel 1</t>
+  </si>
+  <si>
+    <t>channel 2</t>
+  </si>
+  <si>
+    <t>theory 2004</t>
+  </si>
+  <si>
+    <t>theory 2000</t>
+  </si>
+  <si>
+    <t>direct_abstraction</t>
+  </si>
+  <si>
+    <t>addition_elimaintion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall rate </t>
+  </si>
+  <si>
+    <t>uncertainty 30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -233,13 +262,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +353,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,26 +597,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="55" width="9.140625" style="7" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="13.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="55" width="9.1796875" style="7" customWidth="1"/>
+    <col min="56" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1186,552 +1252,390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8">
-        <v>225804303483.6326</v>
-      </c>
-      <c r="F1" s="8">
-        <f>E1*0.7</f>
-        <v>158063012438.54282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="4">
+        <v>4.8100000000000001E-11</v>
+      </c>
+      <c r="F1" s="8" t="e">
+        <f>#REF!*0.7</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0.77359521487194471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" t="s">
+      <c r="C2" s="2">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>-607.24425138177037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="D4" t="s">
+      <c r="C3" s="5">
+        <f>-728.3/1000</f>
+        <v>-0.72829999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1"/>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <f>SUM(E6:E25)</f>
-        <v>2.7971099899602367E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>150.83848278000801</v>
-      </c>
-      <c r="B6">
-        <v>13.743885822498299</v>
-      </c>
-      <c r="C6" s="7">
-        <f>B6*6.02E+23/100000000000</f>
-        <v>82738192651439.75</v>
-      </c>
-      <c r="D6">
-        <f>E$1*A6^E$2*EXP(-E$3/1.98726/A6)</f>
-        <v>82949267040698.594</v>
-      </c>
-      <c r="E6">
-        <f>(D6-C6)^2/C6^2</f>
-        <v>6.5081720127334411E-6</v>
-      </c>
-      <c r="F6">
-        <f>B6*0.7</f>
-        <v>9.6207200757488085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>199.53168353089799</v>
-      </c>
-      <c r="B7">
-        <v>10.433292533659699</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" ref="C7:C25" si="0">B7*6.02E+23/100000000000</f>
-        <v>62808421052631.391</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7:D25" si="1">E$1*A7^E$2*EXP(-E$3/1.98726/A7)</f>
-        <v>62820520979185.359</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7:E25" si="2">(D7-C7)^2/C7^2</f>
-        <v>3.7113312359299064E-8</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ref="F7:F25" si="3">B7*0.7</f>
-        <v>7.3033047735617886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>250.15242142213799</v>
-      </c>
-      <c r="B8">
-        <v>9.1358629130966893</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <f>C$1*(A9/298)^C$2*EXP(-C$3*1000/8.314/A9)</f>
+        <v>7.0854874280014611E-11</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.1700000000000001E-11</v>
+      </c>
+      <c r="D9" s="8">
+        <f>B9+C9</f>
+        <v>8.2554874280014607E-11</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>220</v>
+      </c>
+      <c r="B10" s="7">
+        <f>C$1*(A10/298)^C$2*EXP(-C$3*1000/8.314/A10)</f>
+        <v>6.8918201914959256E-11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.1000000000000001E-11</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:D24" si="0">B10+C10</f>
+        <v>7.9918201914959257E-11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
+        <v>240</v>
+      </c>
+      <c r="B11" s="7">
+        <f>C$1*(A11/298)^C$2*EXP(-C$3*1000/8.314/A11)</f>
+        <v>6.7409721279326889E-11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.0399999999999999E-11</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>54997894736842.07</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="1"/>
-        <v>54887757332727.312</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="2"/>
-        <v>4.0103062710307921E-6</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="3"/>
-        <v>6.3951040391676823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>303.93046020052299</v>
-      </c>
-      <c r="B9">
-        <v>8.6019722408258392</v>
-      </c>
-      <c r="C9" s="7">
+        <v>7.7809721279326887E-11</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
+        <v>260</v>
+      </c>
+      <c r="B12" s="7">
+        <f>C$1*(A12/298)^C$2*EXP(-C$3*1000/8.314/A12)</f>
+        <v>6.6213077428614952E-11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>51783872889771.547</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="1"/>
-        <v>51407885126290.828</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="2"/>
-        <v>5.271793206822807E-5</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="3"/>
-        <v>6.0213805685780875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>399.66398004665001</v>
-      </c>
-      <c r="B10">
-        <v>8.2519110413154397</v>
-      </c>
-      <c r="C10" s="7">
+        <v>7.6213077428614957E-11</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
+        <v>280</v>
+      </c>
+      <c r="B13" s="7">
+        <f>C$1*(A13/298)^C$2*EXP(-C$3*1000/8.314/A13)</f>
+        <v>6.5249865020531037E-11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>49676504468718.945</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>49938655853747.586</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="2"/>
-        <v>2.7848528720457449E-5</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="3"/>
-        <v>5.7763377289208071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>525.475987027683</v>
-      </c>
-      <c r="B11">
-        <v>8.5488556846262203</v>
-      </c>
-      <c r="C11" s="7">
+        <v>7.5249865020531041E-11</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
+        <v>300</v>
+      </c>
+      <c r="B14" s="7">
+        <f>C$1*(A14/298)^C$2*EXP(-C$3*1000/8.314/A14)</f>
+        <v>6.4465430098445114E-11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9.6999999999999995E-12</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>51464111221449.844</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="1"/>
-        <v>51390720269463.906</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0336494255906271E-6</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="3"/>
-        <v>5.9841989792383536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>619.87087068262997</v>
-      </c>
-      <c r="B12">
-        <v>8.9393316551580799</v>
-      </c>
-      <c r="C12" s="7">
+        <v>7.4165430098445116E-11</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
+        <v>320</v>
+      </c>
+      <c r="B15" s="7">
+        <f>C$1*(A15/298)^C$2*EXP(-C$3*1000/8.314/A15)</f>
+        <v>6.3820577213684155E-11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9.4999999999999995E-12</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>53814776564051.641</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="1"/>
-        <v>53447922194234.32</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="2"/>
-        <v>4.6471245272127067E-5</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="3"/>
-        <v>6.2575321586106556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>703.76698657569705</v>
-      </c>
-      <c r="B13">
-        <v>9.23756957114154</v>
-      </c>
-      <c r="C13" s="7">
+        <v>7.3320577213684148E-11</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <v>340</v>
+      </c>
+      <c r="B16" s="7">
+        <f>C$1*(A16/298)^C$2*EXP(-C$3*1000/8.314/A16)</f>
+        <v>6.3286509888309379E-11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9.5999999999999995E-12</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>55610168818272.07</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="1"/>
-        <v>55597582259289.539</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="2"/>
-        <v>5.1227788010749866E-8</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="3"/>
-        <v>6.4662986997990775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>798.166818978116</v>
-      </c>
-      <c r="B14">
-        <v>9.6511858848525396</v>
-      </c>
-      <c r="C14" s="7">
+        <v>7.2886509888309377E-11</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>360</v>
+      </c>
+      <c r="B17" s="7">
+        <f>C$1*(A17/298)^C$2*EXP(-C$3*1000/8.314/A17)</f>
+        <v>6.284162744959876E-11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9.4999999999999995E-12</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>58100139026812.289</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="1"/>
-        <v>58216008628646.852</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="2"/>
-        <v>3.977266442752427E-6</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7558301193967774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>883.57477722388398</v>
-      </c>
-      <c r="B15">
-        <v>10.018798642063601</v>
-      </c>
-      <c r="C15" s="7">
+        <v>7.2341627449598766E-11</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>380</v>
+      </c>
+      <c r="B18" s="7">
+        <f>C$1*(A18/298)^C$2*EXP(-C$3*1000/8.314/A18)</f>
+        <v>6.2469431647566995E-11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9.8999999999999994E-12</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>60313167825222.875</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="1"/>
-        <v>60691091975867.078</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9263138538550545E-5</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="3"/>
-        <v>7.0131590494445204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>961.50270366570203</v>
-      </c>
-      <c r="B16">
-        <v>10.4097826840026</v>
-      </c>
-      <c r="C16" s="7">
+        <v>7.2369431647566995E-11</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
+        <v>400</v>
+      </c>
+      <c r="B19" s="7">
+        <f>C$1*(A19/298)^C$2*EXP(-C$3*1000/8.314/A19)</f>
+        <v>6.2157120273726718E-11</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
-        <v>62666891757695.656</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="1"/>
-        <v>63001169873365.977</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="2"/>
-        <v>2.8453754613155092E-5</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="3"/>
-        <v>7.2868478788018196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>1031.94070080862</v>
-      </c>
-      <c r="B17">
-        <v>10.777857324311199</v>
-      </c>
-      <c r="C17" s="7">
+        <v>7.2157120273726722E-11</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
+        <v>500</v>
+      </c>
+      <c r="B20" s="7">
+        <f>C$1*(A20/298)^C$2*EXP(-C$3*1000/8.314/A20)</f>
+        <v>6.1203537690830589E-11</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.1200000000000001E-11</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
-        <v>64882701092353.422</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
-        <v>65114889696704.82</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2806308489420817E-5</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="3"/>
-        <v>7.5445001270178391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1114.36456432876</v>
-      </c>
-      <c r="B18">
-        <v>11.191843144500099</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="0"/>
-        <v>67374895729890.594</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>67606013534897.641</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1767131215770928E-5</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="3"/>
-        <v>7.8342902011500692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1193.79938437581</v>
-      </c>
-      <c r="B19">
-        <v>11.629061684487599</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="0"/>
-        <v>70006951340615.344</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
-        <v>70015621499247.187</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5338106755827826E-8</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="3"/>
-        <v>8.1403431791413183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1264.2324327712599</v>
-      </c>
-      <c r="B20">
-        <v>11.973995981617</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>72083455809334.344</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>72154081490349.547</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="2"/>
-        <v>9.5996212517963627E-7</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3817971871318999</v>
-      </c>
+        <v>7.2403537690830587E-11</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1318.18367771117</v>
-      </c>
-      <c r="B21">
-        <v>12.2500173206161</v>
-      </c>
-      <c r="C21" s="7">
+        <v>600</v>
+      </c>
+      <c r="B21" s="7">
+        <f>C$1*(A21/298)^C$2*EXP(-C$3*1000/8.314/A21)</f>
+        <v>6.0834684043423119E-11</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.29E-11</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>73745104270108.922</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="1"/>
-        <v>73791206805816.719</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9082581097717565E-7</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="3"/>
-        <v>8.5750121244312698</v>
-      </c>
+        <v>7.3734684043423121E-11</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1385.63263138099</v>
-      </c>
-      <c r="B22">
-        <v>12.641324680723301</v>
-      </c>
-      <c r="C22" s="7">
+        <v>800</v>
+      </c>
+      <c r="B22" s="7">
+        <f>C$1*(A22/298)^C$2*EXP(-C$3*1000/8.314/A22)</f>
+        <v>6.0836870721289729E-11</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.7999999999999999E-11</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>76100774577954.281</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="1"/>
-        <v>75834976913020.687</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2198998227935606E-5</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="3"/>
-        <v>8.8489272765063092</v>
-      </c>
+        <v>7.8836870721289731E-11</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1447.0738056197899</v>
-      </c>
-      <c r="B23">
-        <v>12.9402554213528</v>
-      </c>
-      <c r="C23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="7">
+        <f>C$1*(A23/298)^C$2*EXP(-C$3*1000/8.314/A23)</f>
+        <v>6.1229889141991005E-11</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.6000000000000001E-11</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
-        <v>77900337636543.859</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="1"/>
-        <v>77692599778422.234</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1113592542062898E-6</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0581787949469597</v>
-      </c>
+        <v>8.7229889141991006E-11</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1508.5199286060599</v>
-      </c>
-      <c r="B24">
-        <v>13.2623265051615</v>
-      </c>
-      <c r="C24" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="7">
+        <f>C$1*(A24/298)^C$2*EXP(-C$3*1000/8.314/A24)</f>
+        <v>6.2610298684107649E-11</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5.05E-11</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
-        <v>79839205561072.234</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="1"/>
-        <v>79545496191892.156</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3533283738376069E-5</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="3"/>
-        <v>9.283628553613049</v>
-      </c>
+        <v>1.1311029868410764E-10</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1578.9529770015199</v>
-      </c>
-      <c r="B25">
-        <v>13.607260802290901</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="0"/>
-        <v>81915710029791.219</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="1"/>
-        <v>81662492980315.937</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="2"/>
-        <v>9.5554575624058087E-6</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="3"/>
-        <v>9.5250825616036305</v>
-      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>